--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10101_Login.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{299105AD-303F-4694-AC0C-41C83A1F4D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869D9A40-D34E-4C0A-8B56-F5A794B83D20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -48,80 +48,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{4BBB5184-6223-4B4D-B4DF-6220A8D0AA80}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」は
-「subfunction」と訳してください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{4FEBEDFF-12E9-45B0-9C58-AB44C0B0F694}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」は「subfunction」と訳してください。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
@@ -149,25 +75,6 @@
           </rPr>
           <t xml:space="preserve">
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{8BDC78E6-1D5C-4299-9AB3-1028B06DC839}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:
-注釈コメントの6番について
-「内部設計工程」は
-「internal design process」
-と訳してください。</t>
         </r>
       </text>
     </comment>
@@ -577,9 +484,6 @@
     <t>Default value</t>
   </si>
   <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
     <t>Screen item name
 (physical)</t>
   </si>
@@ -907,6 +811,10 @@
   </si>
   <si>
     <t>Subfunction summary</t>
+  </si>
+  <si>
+    <t>Required</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -917,7 +825,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1083,21 +991,6 @@
       <color indexed="81"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2403,6 +2296,36 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2421,33 +2344,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2474,9 +2370,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3397,42 +3290,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3443,7 +3336,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3452,7 +3345,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -3464,7 +3357,7 @@
       <c r="K25" s="171"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3473,7 +3366,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3482,7 +3375,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3491,7 +3384,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -3499,7 +3392,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -3508,7 +3401,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3517,7 +3410,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="19">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3526,7 +3419,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="19">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -3538,7 +3431,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="19">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -3553,515 +3446,515 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="33"/>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="34"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="33"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="35"/>
       <c r="P37" s="36"/>
       <c r="Q37" s="35"/>
       <c r="R37" s="36"/>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4085,12 +3978,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="26"/>
+    <col min="1" max="16384" width="4.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1">
+    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="220" t="s">
         <v>19</v>
       </c>
@@ -4148,7 +4041,7 @@
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1">
+    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="220" t="s">
         <v>24</v>
       </c>
@@ -4202,7 +4095,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1">
+    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="220" t="s">
         <v>27</v>
       </c>
@@ -4248,7 +4141,7 @@
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" s="16" customFormat="1">
+    <row r="4" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -4290,7 +4183,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4334,7 +4227,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4376,7 +4269,7 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
@@ -4427,7 +4320,7 @@
       <c r="AH7" s="188"/>
       <c r="AI7" s="189"/>
     </row>
-    <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
@@ -4478,7 +4371,7 @@
       <c r="AH8" s="200"/>
       <c r="AI8" s="201"/>
     </row>
-    <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="184"/>
       <c r="C9" s="186"/>
@@ -4515,7 +4408,7 @@
       <c r="AH9" s="197"/>
       <c r="AI9" s="198"/>
     </row>
-    <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
       <c r="B10" s="184"/>
       <c r="C10" s="186"/>
@@ -4552,7 +4445,7 @@
       <c r="AH10" s="197"/>
       <c r="AI10" s="198"/>
     </row>
-    <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
       <c r="B11" s="184"/>
       <c r="C11" s="186"/>
@@ -4589,7 +4482,7 @@
       <c r="AH11" s="197"/>
       <c r="AI11" s="198"/>
     </row>
-    <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
       <c r="B12" s="184"/>
       <c r="C12" s="186"/>
@@ -4626,7 +4519,7 @@
       <c r="AH12" s="197"/>
       <c r="AI12" s="198"/>
     </row>
-    <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="184"/>
       <c r="C13" s="186"/>
@@ -4663,7 +4556,7 @@
       <c r="AH13" s="197"/>
       <c r="AI13" s="198"/>
     </row>
-    <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="184"/>
       <c r="C14" s="186"/>
@@ -4700,7 +4593,7 @@
       <c r="AH14" s="197"/>
       <c r="AI14" s="198"/>
     </row>
-    <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
       <c r="B15" s="184"/>
       <c r="C15" s="186"/>
@@ -4737,7 +4630,7 @@
       <c r="AH15" s="197"/>
       <c r="AI15" s="198"/>
     </row>
-    <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="B16" s="184"/>
       <c r="C16" s="186"/>
@@ -4774,7 +4667,7 @@
       <c r="AH16" s="197"/>
       <c r="AI16" s="198"/>
     </row>
-    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
       <c r="B17" s="184"/>
       <c r="C17" s="186"/>
@@ -4811,7 +4704,7 @@
       <c r="AH17" s="197"/>
       <c r="AI17" s="198"/>
     </row>
-    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="184"/>
       <c r="C18" s="186"/>
@@ -4848,7 +4741,7 @@
       <c r="AH18" s="197"/>
       <c r="AI18" s="198"/>
     </row>
-    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
       <c r="B19" s="184"/>
       <c r="C19" s="186"/>
@@ -4885,7 +4778,7 @@
       <c r="AH19" s="197"/>
       <c r="AI19" s="198"/>
     </row>
-    <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
       <c r="B20" s="184"/>
       <c r="C20" s="186"/>
@@ -4922,7 +4815,7 @@
       <c r="AH20" s="197"/>
       <c r="AI20" s="198"/>
     </row>
-    <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="B21" s="184"/>
       <c r="C21" s="186"/>
@@ -4959,7 +4852,7 @@
       <c r="AH21" s="197"/>
       <c r="AI21" s="198"/>
     </row>
-    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
       <c r="B22" s="184"/>
       <c r="C22" s="186"/>
@@ -4996,7 +4889,7 @@
       <c r="AH22" s="197"/>
       <c r="AI22" s="198"/>
     </row>
-    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
       <c r="B23" s="184"/>
       <c r="C23" s="186"/>
@@ -5033,7 +4926,7 @@
       <c r="AH23" s="197"/>
       <c r="AI23" s="198"/>
     </row>
-    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
       <c r="B24" s="184"/>
       <c r="C24" s="186"/>
@@ -5070,7 +4963,7 @@
       <c r="AH24" s="197"/>
       <c r="AI24" s="198"/>
     </row>
-    <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="184"/>
       <c r="C25" s="186"/>
@@ -5107,7 +5000,7 @@
       <c r="AH25" s="197"/>
       <c r="AI25" s="198"/>
     </row>
-    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="184"/>
       <c r="C26" s="186"/>
@@ -5144,7 +5037,7 @@
       <c r="AH26" s="197"/>
       <c r="AI26" s="198"/>
     </row>
-    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="184"/>
       <c r="C27" s="186"/>
@@ -5181,7 +5074,7 @@
       <c r="AH27" s="197"/>
       <c r="AI27" s="198"/>
     </row>
-    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="184"/>
       <c r="C28" s="186"/>
@@ -5218,7 +5111,7 @@
       <c r="AH28" s="197"/>
       <c r="AI28" s="198"/>
     </row>
-    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="184"/>
       <c r="C29" s="186"/>
@@ -5255,7 +5148,7 @@
       <c r="AH29" s="197"/>
       <c r="AI29" s="198"/>
     </row>
-    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="184"/>
       <c r="C30" s="186"/>
@@ -5292,7 +5185,7 @@
       <c r="AH30" s="197"/>
       <c r="AI30" s="198"/>
     </row>
-    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="184"/>
       <c r="C31" s="186"/>
@@ -5329,7 +5222,7 @@
       <c r="AH31" s="197"/>
       <c r="AI31" s="198"/>
     </row>
-    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="184"/>
       <c r="C32" s="186"/>
@@ -5366,7 +5259,7 @@
       <c r="AH32" s="197"/>
       <c r="AI32" s="198"/>
     </row>
-    <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="184"/>
       <c r="C33" s="186"/>
@@ -5403,7 +5296,7 @@
       <c r="AH33" s="197"/>
       <c r="AI33" s="198"/>
     </row>
-    <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -5630,152 +5523,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.77734375" style="49" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="57" customWidth="1"/>
-    <col min="18" max="33" width="4.77734375" style="49" customWidth="1"/>
-    <col min="34" max="34" width="4.77734375" style="57" customWidth="1"/>
-    <col min="35" max="256" width="4.77734375" style="49"/>
-    <col min="257" max="290" width="4.77734375" style="49" customWidth="1"/>
-    <col min="291" max="512" width="4.77734375" style="49"/>
-    <col min="513" max="546" width="4.77734375" style="49" customWidth="1"/>
-    <col min="547" max="768" width="4.77734375" style="49"/>
-    <col min="769" max="802" width="4.77734375" style="49" customWidth="1"/>
-    <col min="803" max="1024" width="4.77734375" style="49"/>
-    <col min="1025" max="1058" width="4.77734375" style="49" customWidth="1"/>
-    <col min="1059" max="1280" width="4.77734375" style="49"/>
-    <col min="1281" max="1314" width="4.77734375" style="49" customWidth="1"/>
-    <col min="1315" max="1536" width="4.77734375" style="49"/>
-    <col min="1537" max="1570" width="4.77734375" style="49" customWidth="1"/>
-    <col min="1571" max="1792" width="4.77734375" style="49"/>
-    <col min="1793" max="1826" width="4.77734375" style="49" customWidth="1"/>
-    <col min="1827" max="2048" width="4.77734375" style="49"/>
-    <col min="2049" max="2082" width="4.77734375" style="49" customWidth="1"/>
-    <col min="2083" max="2304" width="4.77734375" style="49"/>
-    <col min="2305" max="2338" width="4.77734375" style="49" customWidth="1"/>
-    <col min="2339" max="2560" width="4.77734375" style="49"/>
-    <col min="2561" max="2594" width="4.77734375" style="49" customWidth="1"/>
-    <col min="2595" max="2816" width="4.77734375" style="49"/>
-    <col min="2817" max="2850" width="4.77734375" style="49" customWidth="1"/>
-    <col min="2851" max="3072" width="4.77734375" style="49"/>
-    <col min="3073" max="3106" width="4.77734375" style="49" customWidth="1"/>
-    <col min="3107" max="3328" width="4.77734375" style="49"/>
-    <col min="3329" max="3362" width="4.77734375" style="49" customWidth="1"/>
-    <col min="3363" max="3584" width="4.77734375" style="49"/>
-    <col min="3585" max="3618" width="4.77734375" style="49" customWidth="1"/>
-    <col min="3619" max="3840" width="4.77734375" style="49"/>
-    <col min="3841" max="3874" width="4.77734375" style="49" customWidth="1"/>
-    <col min="3875" max="4096" width="4.77734375" style="49"/>
-    <col min="4097" max="4130" width="4.77734375" style="49" customWidth="1"/>
-    <col min="4131" max="4352" width="4.77734375" style="49"/>
-    <col min="4353" max="4386" width="4.77734375" style="49" customWidth="1"/>
-    <col min="4387" max="4608" width="4.77734375" style="49"/>
-    <col min="4609" max="4642" width="4.77734375" style="49" customWidth="1"/>
-    <col min="4643" max="4864" width="4.77734375" style="49"/>
-    <col min="4865" max="4898" width="4.77734375" style="49" customWidth="1"/>
-    <col min="4899" max="5120" width="4.77734375" style="49"/>
-    <col min="5121" max="5154" width="4.77734375" style="49" customWidth="1"/>
-    <col min="5155" max="5376" width="4.77734375" style="49"/>
-    <col min="5377" max="5410" width="4.77734375" style="49" customWidth="1"/>
-    <col min="5411" max="5632" width="4.77734375" style="49"/>
-    <col min="5633" max="5666" width="4.77734375" style="49" customWidth="1"/>
-    <col min="5667" max="5888" width="4.77734375" style="49"/>
-    <col min="5889" max="5922" width="4.77734375" style="49" customWidth="1"/>
-    <col min="5923" max="6144" width="4.77734375" style="49"/>
-    <col min="6145" max="6178" width="4.77734375" style="49" customWidth="1"/>
-    <col min="6179" max="6400" width="4.77734375" style="49"/>
-    <col min="6401" max="6434" width="4.77734375" style="49" customWidth="1"/>
-    <col min="6435" max="6656" width="4.77734375" style="49"/>
-    <col min="6657" max="6690" width="4.77734375" style="49" customWidth="1"/>
-    <col min="6691" max="6912" width="4.77734375" style="49"/>
-    <col min="6913" max="6946" width="4.77734375" style="49" customWidth="1"/>
-    <col min="6947" max="7168" width="4.77734375" style="49"/>
-    <col min="7169" max="7202" width="4.77734375" style="49" customWidth="1"/>
-    <col min="7203" max="7424" width="4.77734375" style="49"/>
-    <col min="7425" max="7458" width="4.77734375" style="49" customWidth="1"/>
-    <col min="7459" max="7680" width="4.77734375" style="49"/>
-    <col min="7681" max="7714" width="4.77734375" style="49" customWidth="1"/>
-    <col min="7715" max="7936" width="4.77734375" style="49"/>
-    <col min="7937" max="7970" width="4.77734375" style="49" customWidth="1"/>
-    <col min="7971" max="8192" width="4.77734375" style="49"/>
-    <col min="8193" max="8226" width="4.77734375" style="49" customWidth="1"/>
-    <col min="8227" max="8448" width="4.77734375" style="49"/>
-    <col min="8449" max="8482" width="4.77734375" style="49" customWidth="1"/>
-    <col min="8483" max="8704" width="4.77734375" style="49"/>
-    <col min="8705" max="8738" width="4.77734375" style="49" customWidth="1"/>
-    <col min="8739" max="8960" width="4.77734375" style="49"/>
-    <col min="8961" max="8994" width="4.77734375" style="49" customWidth="1"/>
-    <col min="8995" max="9216" width="4.77734375" style="49"/>
-    <col min="9217" max="9250" width="4.77734375" style="49" customWidth="1"/>
-    <col min="9251" max="9472" width="4.77734375" style="49"/>
-    <col min="9473" max="9506" width="4.77734375" style="49" customWidth="1"/>
-    <col min="9507" max="9728" width="4.77734375" style="49"/>
-    <col min="9729" max="9762" width="4.77734375" style="49" customWidth="1"/>
-    <col min="9763" max="9984" width="4.77734375" style="49"/>
-    <col min="9985" max="10018" width="4.77734375" style="49" customWidth="1"/>
-    <col min="10019" max="10240" width="4.77734375" style="49"/>
-    <col min="10241" max="10274" width="4.77734375" style="49" customWidth="1"/>
-    <col min="10275" max="10496" width="4.77734375" style="49"/>
-    <col min="10497" max="10530" width="4.77734375" style="49" customWidth="1"/>
-    <col min="10531" max="10752" width="4.77734375" style="49"/>
-    <col min="10753" max="10786" width="4.77734375" style="49" customWidth="1"/>
-    <col min="10787" max="11008" width="4.77734375" style="49"/>
-    <col min="11009" max="11042" width="4.77734375" style="49" customWidth="1"/>
-    <col min="11043" max="11264" width="4.77734375" style="49"/>
-    <col min="11265" max="11298" width="4.77734375" style="49" customWidth="1"/>
-    <col min="11299" max="11520" width="4.77734375" style="49"/>
-    <col min="11521" max="11554" width="4.77734375" style="49" customWidth="1"/>
-    <col min="11555" max="11776" width="4.77734375" style="49"/>
-    <col min="11777" max="11810" width="4.77734375" style="49" customWidth="1"/>
-    <col min="11811" max="12032" width="4.77734375" style="49"/>
-    <col min="12033" max="12066" width="4.77734375" style="49" customWidth="1"/>
-    <col min="12067" max="12288" width="4.77734375" style="49"/>
-    <col min="12289" max="12322" width="4.77734375" style="49" customWidth="1"/>
-    <col min="12323" max="12544" width="4.77734375" style="49"/>
-    <col min="12545" max="12578" width="4.77734375" style="49" customWidth="1"/>
-    <col min="12579" max="12800" width="4.77734375" style="49"/>
-    <col min="12801" max="12834" width="4.77734375" style="49" customWidth="1"/>
-    <col min="12835" max="13056" width="4.77734375" style="49"/>
-    <col min="13057" max="13090" width="4.77734375" style="49" customWidth="1"/>
-    <col min="13091" max="13312" width="4.77734375" style="49"/>
-    <col min="13313" max="13346" width="4.77734375" style="49" customWidth="1"/>
-    <col min="13347" max="13568" width="4.77734375" style="49"/>
-    <col min="13569" max="13602" width="4.77734375" style="49" customWidth="1"/>
-    <col min="13603" max="13824" width="4.77734375" style="49"/>
-    <col min="13825" max="13858" width="4.77734375" style="49" customWidth="1"/>
-    <col min="13859" max="14080" width="4.77734375" style="49"/>
-    <col min="14081" max="14114" width="4.77734375" style="49" customWidth="1"/>
-    <col min="14115" max="14336" width="4.77734375" style="49"/>
-    <col min="14337" max="14370" width="4.77734375" style="49" customWidth="1"/>
-    <col min="14371" max="14592" width="4.77734375" style="49"/>
-    <col min="14593" max="14626" width="4.77734375" style="49" customWidth="1"/>
-    <col min="14627" max="14848" width="4.77734375" style="49"/>
-    <col min="14849" max="14882" width="4.77734375" style="49" customWidth="1"/>
-    <col min="14883" max="15104" width="4.77734375" style="49"/>
-    <col min="15105" max="15138" width="4.77734375" style="49" customWidth="1"/>
-    <col min="15139" max="15360" width="4.77734375" style="49"/>
-    <col min="15361" max="15394" width="4.77734375" style="49" customWidth="1"/>
-    <col min="15395" max="15616" width="4.77734375" style="49"/>
-    <col min="15617" max="15650" width="4.77734375" style="49" customWidth="1"/>
-    <col min="15651" max="15872" width="4.77734375" style="49"/>
-    <col min="15873" max="15906" width="4.77734375" style="49" customWidth="1"/>
-    <col min="15907" max="16128" width="4.77734375" style="49"/>
-    <col min="16129" max="16162" width="4.77734375" style="49" customWidth="1"/>
-    <col min="16163" max="16384" width="4.77734375" style="49"/>
+    <col min="1" max="16" width="4.83203125" style="49" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="57" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="49" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="57" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="49"/>
+    <col min="257" max="290" width="4.83203125" style="49" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="49"/>
+    <col min="513" max="546" width="4.83203125" style="49" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="49"/>
+    <col min="769" max="802" width="4.83203125" style="49" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="49"/>
+    <col min="1025" max="1058" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="49"/>
+    <col min="1281" max="1314" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="49"/>
+    <col min="1537" max="1570" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="49"/>
+    <col min="1793" max="1826" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="49"/>
+    <col min="2049" max="2082" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="49"/>
+    <col min="2305" max="2338" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="49"/>
+    <col min="2561" max="2594" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="49"/>
+    <col min="2817" max="2850" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="49"/>
+    <col min="3073" max="3106" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="49"/>
+    <col min="3329" max="3362" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="49"/>
+    <col min="3585" max="3618" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="49"/>
+    <col min="3841" max="3874" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="49"/>
+    <col min="4097" max="4130" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="49"/>
+    <col min="4353" max="4386" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="49"/>
+    <col min="4609" max="4642" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="49"/>
+    <col min="4865" max="4898" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="49"/>
+    <col min="5121" max="5154" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="49"/>
+    <col min="5377" max="5410" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="49"/>
+    <col min="5633" max="5666" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="49"/>
+    <col min="5889" max="5922" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="49"/>
+    <col min="6145" max="6178" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="49"/>
+    <col min="6401" max="6434" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="49"/>
+    <col min="6657" max="6690" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="49"/>
+    <col min="6913" max="6946" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="49"/>
+    <col min="7169" max="7202" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="49"/>
+    <col min="7425" max="7458" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="49"/>
+    <col min="7681" max="7714" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="49"/>
+    <col min="7937" max="7970" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="49"/>
+    <col min="8193" max="8226" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="49"/>
+    <col min="8449" max="8482" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="49"/>
+    <col min="8705" max="8738" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="49"/>
+    <col min="8961" max="8994" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="49"/>
+    <col min="9217" max="9250" width="4.83203125" style="49" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="49"/>
+    <col min="9473" max="9506" width="4.83203125" style="49" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="49"/>
+    <col min="9729" max="9762" width="4.83203125" style="49" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="49"/>
+    <col min="9985" max="10018" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="49"/>
+    <col min="10241" max="10274" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="49"/>
+    <col min="10497" max="10530" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="49"/>
+    <col min="10753" max="10786" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="49"/>
+    <col min="11009" max="11042" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="49"/>
+    <col min="11265" max="11298" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="49"/>
+    <col min="11521" max="11554" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="49"/>
+    <col min="11777" max="11810" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="49"/>
+    <col min="12033" max="12066" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="49"/>
+    <col min="12289" max="12322" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="49"/>
+    <col min="12545" max="12578" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="49"/>
+    <col min="12801" max="12834" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="49"/>
+    <col min="13057" max="13090" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="49"/>
+    <col min="13313" max="13346" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="49"/>
+    <col min="13569" max="13602" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="49"/>
+    <col min="13825" max="13858" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="49"/>
+    <col min="14081" max="14114" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="49"/>
+    <col min="14337" max="14370" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="49"/>
+    <col min="14593" max="14626" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="49"/>
+    <col min="14849" max="14882" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="49"/>
+    <col min="15105" max="15138" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="49"/>
+    <col min="15361" max="15394" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="49"/>
+    <col min="15617" max="15650" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="49"/>
+    <col min="15873" max="15906" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="49"/>
+    <col min="16129" max="16162" width="4.83203125" style="49" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="11.5" hidden="1">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="243" t="s">
         <v>0</v>
       </c>
@@ -5831,7 +5724,7 @@
       <c r="AH1" s="238"/>
       <c r="AI1" s="239"/>
     </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="11.5" hidden="1">
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="243" t="s">
         <v>3</v>
       </c>
@@ -5881,7 +5774,7 @@
       <c r="AH2" s="238"/>
       <c r="AI2" s="239"/>
     </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="11.5" hidden="1">
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="243" t="s">
         <v>5</v>
       </c>
@@ -5929,7 +5822,7 @@
       <c r="AH3" s="238"/>
       <c r="AI3" s="239"/>
     </row>
-    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -5966,7 +5859,7 @@
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
     </row>
-    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -6005,7 +5898,7 @@
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
     </row>
-    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -6042,10 +5935,10 @@
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -6081,11 +5974,11 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="48"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -6120,7 +6013,7 @@
       <c r="AH8" s="51"/>
       <c r="AI8" s="48"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
       <c r="B9" s="44"/>
       <c r="C9" s="43"/>
@@ -6157,7 +6050,7 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="42"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
         <v>43</v>
@@ -6196,7 +6089,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="48"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
       <c r="B11" s="44"/>
       <c r="C11" s="53" t="s">
@@ -6235,7 +6128,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
@@ -6269,7 +6162,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
       <c r="B13" s="48"/>
       <c r="C13" s="54" t="s">
@@ -6308,7 +6201,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
       <c r="B14" s="53"/>
       <c r="C14" s="54" t="s">
@@ -6347,7 +6240,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54" t="s">
@@ -6382,7 +6275,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
       <c r="B16" s="38"/>
       <c r="C16" s="42" t="s">
@@ -6421,7 +6314,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
       <c r="B17" s="38"/>
       <c r="C17" s="56"/>
@@ -6457,7 +6350,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -6494,7 +6387,7 @@
       <c r="AH18" s="64"/>
       <c r="AI18" s="65"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="66"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
@@ -6528,7 +6421,7 @@
       <c r="AH19" s="64"/>
       <c r="AI19" s="65"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J20" s="66"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
@@ -6556,7 +6449,7 @@
       <c r="AH20" s="64"/>
       <c r="AI20" s="65"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
       <c r="M21" s="58"/>
@@ -6583,7 +6476,7 @@
       <c r="AH21" s="69"/>
       <c r="AI21" s="58"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K22" s="66"/>
       <c r="L22" s="66"/>
       <c r="M22" s="66"/>
@@ -6608,7 +6501,7 @@
       <c r="AH22" s="75"/>
       <c r="AI22" s="71"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S23" s="71"/>
       <c r="T23" s="71"/>
       <c r="U23" s="72"/>
@@ -6627,7 +6520,7 @@
       <c r="AH23" s="78"/>
       <c r="AI23" s="71"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J24" s="66"/>
       <c r="Q24" s="79"/>
       <c r="S24" s="71"/>
@@ -6648,7 +6541,7 @@
       <c r="AH24" s="78"/>
       <c r="AI24" s="71"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S25" s="71"/>
       <c r="T25" s="71"/>
       <c r="U25" s="71"/>
@@ -6667,7 +6560,7 @@
       <c r="AH25" s="78"/>
       <c r="AI25" s="71"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="66"/>
       <c r="K26" s="66"/>
       <c r="L26" s="66"/>
@@ -6681,7 +6574,7 @@
       <c r="AH26" s="78"/>
       <c r="AI26" s="71"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="66"/>
       <c r="AE27" s="71"/>
       <c r="AF27" s="76"/>
@@ -6689,28 +6582,28 @@
       <c r="AH27" s="78"/>
       <c r="AI27" s="71"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE28" s="71"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="78"/>
       <c r="AI28" s="71"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF29" s="80"/>
       <c r="AG29" s="80"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG30" s="80"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF31" s="80"/>
       <c r="AG31" s="80"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG32" s="80"/>
     </row>
-    <row r="33" spans="1:34" ht="15" customHeight="1">
+    <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S33" s="66"/>
       <c r="T33" s="66"/>
       <c r="V33" s="66"/>
@@ -6723,7 +6616,7 @@
       <c r="AC33" s="66"/>
       <c r="AD33" s="66"/>
     </row>
-    <row r="34" spans="1:34" ht="15" customHeight="1">
+    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R34" s="66"/>
       <c r="S34" s="66"/>
       <c r="T34" s="66"/>
@@ -6738,10 +6631,10 @@
       <c r="AD34" s="66"/>
       <c r="AG34" s="80"/>
     </row>
-    <row r="35" spans="1:34" ht="15" customHeight="1">
+    <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R35" s="66"/>
     </row>
-    <row r="36" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
@@ -6774,7 +6667,7 @@
       <c r="AD36" s="49"/>
       <c r="AH36" s="79"/>
     </row>
-    <row r="37" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
@@ -6831,27 +6724,26 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="54"/>
+    <col min="1" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" hidden="1">
+    <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="243" t="s">
         <v>6</v>
       </c>
@@ -6907,7 +6799,7 @@
       <c r="AH1" s="238"/>
       <c r="AI1" s="239"/>
     </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" hidden="1">
+    <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="243" t="s">
         <v>9</v>
       </c>
@@ -6957,7 +6849,7 @@
       <c r="AH2" s="238"/>
       <c r="AI2" s="239"/>
     </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" hidden="1">
+    <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="243" t="s">
         <v>11</v>
       </c>
@@ -7005,22 +6897,22 @@
       <c r="AH3" s="238"/>
       <c r="AI3" s="239"/>
     </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="58" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1"/>
-    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81"/>
       <c r="C8" s="274" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="275"/>
       <c r="E8" s="275"/>
@@ -7055,10 +6947,10 @@
       <c r="AF8" s="275"/>
       <c r="AG8" s="276"/>
     </row>
-    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="81"/>
       <c r="C9" s="279" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="280"/>
       <c r="E9" s="280"/>
@@ -7093,10 +6985,10 @@
       <c r="AF9" s="275"/>
       <c r="AG9" s="276"/>
     </row>
-    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="81"/>
       <c r="C10" s="265" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="266"/>
       <c r="E10" s="266"/>
@@ -7131,7 +7023,7 @@
       <c r="AF10" s="83"/>
       <c r="AG10" s="84"/>
     </row>
-    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="81"/>
       <c r="C11" s="268"/>
       <c r="D11" s="269"/>
@@ -7165,7 +7057,7 @@
       <c r="AF11" s="40"/>
       <c r="AG11" s="86"/>
     </row>
-    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="81"/>
       <c r="C12" s="268"/>
       <c r="D12" s="269"/>
@@ -7199,7 +7091,7 @@
       <c r="AF12" s="40"/>
       <c r="AG12" s="86"/>
     </row>
-    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="81"/>
       <c r="C13" s="271"/>
       <c r="D13" s="272"/>
@@ -7233,7 +7125,7 @@
       <c r="AF13" s="89"/>
       <c r="AG13" s="90"/>
     </row>
-    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="81"/>
       <c r="C14" s="264" t="s">
         <v>53</v>
@@ -7271,44 +7163,44 @@
       <c r="AF14" s="92"/>
       <c r="AG14" s="93"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1"/>
-    <row r="16" spans="1:35" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
-    <row r="37" ht="12" customHeight="1"/>
-    <row r="38" ht="12" customHeight="1"/>
-    <row r="39" ht="12" customHeight="1"/>
-    <row r="40" ht="12" customHeight="1"/>
-    <row r="41" ht="12" customHeight="1"/>
-    <row r="42" ht="12" customHeight="1"/>
-    <row r="43" ht="12" customHeight="1"/>
-    <row r="44" ht="12" customHeight="1"/>
-    <row r="45" ht="12" customHeight="1"/>
-    <row r="46" ht="12" customHeight="1"/>
-    <row r="47" ht="12" customHeight="1"/>
-    <row r="48" ht="12" customHeight="1"/>
-    <row r="49" ht="12" customHeight="1"/>
-    <row r="50" ht="12" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1"/>
-    <row r="52" ht="12" customHeight="1"/>
+    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A1:D1"/>
@@ -7342,7 +7234,6 @@
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7357,20 +7248,20 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="4.77734375" style="54"/>
-    <col min="8" max="9" width="4.77734375" style="54" customWidth="1"/>
-    <col min="10" max="16384" width="4.77734375" style="54"/>
+    <col min="1" max="7" width="4.83203125" style="54"/>
+    <col min="8" max="9" width="4.83203125" style="54" customWidth="1"/>
+    <col min="10" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1">
-      <c r="A1" s="309" t="s">
+    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="319" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="311"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="321"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -7413,21 +7304,21 @@
       <c r="AD1" s="235"/>
       <c r="AE1" s="235"/>
       <c r="AF1" s="236"/>
-      <c r="AG1" s="306">
+      <c r="AG1" s="316">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="307"/>
-      <c r="AI1" s="308"/>
+      <c r="AH1" s="317"/>
+      <c r="AI1" s="318"/>
       <c r="AJ1" s="94"/>
     </row>
-    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1">
-      <c r="A2" s="309" t="s">
+    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="311"/>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="321"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -7464,21 +7355,21 @@
       <c r="AD2" s="235"/>
       <c r="AE2" s="235"/>
       <c r="AF2" s="236"/>
-      <c r="AG2" s="306" t="str">
+      <c r="AG2" s="316" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="307"/>
-      <c r="AI2" s="308"/>
+      <c r="AH2" s="317"/>
+      <c r="AI2" s="318"/>
       <c r="AJ2" s="94"/>
     </row>
-    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1">
-      <c r="A3" s="309" t="s">
+    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="311"/>
+      <c r="B3" s="320"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="321"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -7513,59 +7404,59 @@
       <c r="AD3" s="235"/>
       <c r="AE3" s="235"/>
       <c r="AF3" s="236"/>
-      <c r="AG3" s="306" t="str">
+      <c r="AG3" s="316" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="307"/>
-      <c r="AI3" s="308"/>
+      <c r="AH3" s="317"/>
+      <c r="AI3" s="318"/>
       <c r="AJ3" s="94"/>
     </row>
-    <row r="4" spans="1:36" ht="12" customHeight="1"/>
-    <row r="5" spans="1:36" ht="12" customHeight="1">
+    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1">
+    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="12" customHeight="1"/>
-    <row r="8" spans="1:36" ht="12" customHeight="1"/>
-    <row r="9" spans="1:36" ht="12" customHeight="1"/>
-    <row r="10" spans="1:36" ht="12" customHeight="1"/>
-    <row r="11" spans="1:36" ht="12" customHeight="1"/>
-    <row r="12" spans="1:36" ht="12" customHeight="1"/>
-    <row r="13" spans="1:36" ht="12" customHeight="1"/>
-    <row r="14" spans="1:36" ht="12" customHeight="1"/>
-    <row r="15" spans="1:36" ht="12" customHeight="1"/>
-    <row r="16" spans="1:36" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" spans="3:53" ht="12" customHeight="1"/>
-    <row r="34" spans="3:53" ht="12" customHeight="1"/>
-    <row r="35" spans="3:53" ht="12" customHeight="1"/>
-    <row r="36" spans="3:53" ht="12" customHeight="1"/>
-    <row r="37" spans="3:53" ht="12" customHeight="1"/>
-    <row r="38" spans="3:53" ht="12" customHeight="1"/>
-    <row r="39" spans="3:53" ht="12" customHeight="1"/>
-    <row r="40" spans="3:53" ht="12" customHeight="1">
+    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="96"/>
       <c r="E40" s="96"/>
       <c r="F40" s="96"/>
@@ -7598,7 +7489,7 @@
       <c r="AG40" s="96"/>
       <c r="AH40" s="96"/>
     </row>
-    <row r="41" spans="3:53">
+    <row r="41" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C41" s="40" t="s">
         <v>45</v>
       </c>
@@ -7633,7 +7524,7 @@
       <c r="AG41" s="96"/>
       <c r="AH41" s="96"/>
     </row>
-    <row r="42" spans="3:53">
+    <row r="42" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C42" s="40"/>
       <c r="D42" s="96"/>
       <c r="E42" s="96"/>
@@ -7666,7 +7557,7 @@
       <c r="AG42" s="96"/>
       <c r="AH42" s="96"/>
     </row>
-    <row r="43" spans="3:53">
+    <row r="43" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
@@ -7709,7 +7600,7 @@
       <c r="AG43" s="96"/>
       <c r="AH43" s="96"/>
     </row>
-    <row r="44" spans="3:53" ht="11.25" customHeight="1">
+    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D44" s="98">
         <v>1</v>
       </c>
@@ -7729,26 +7620,26 @@
       </c>
       <c r="O44" s="283"/>
       <c r="P44" s="283"/>
-      <c r="Q44" s="330" t="s">
+      <c r="Q44" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="330"/>
-      <c r="S44" s="330"/>
-      <c r="T44" s="330"/>
-      <c r="U44" s="330"/>
-      <c r="V44" s="330" t="s">
+      <c r="R44" s="315"/>
+      <c r="S44" s="315"/>
+      <c r="T44" s="315"/>
+      <c r="U44" s="315"/>
+      <c r="V44" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="330"/>
-      <c r="X44" s="330"/>
-      <c r="Y44" s="330"/>
-      <c r="Z44" s="330"/>
-      <c r="AA44" s="330"/>
-      <c r="AB44" s="330"/>
-      <c r="AC44" s="330"/>
+      <c r="W44" s="315"/>
+      <c r="X44" s="315"/>
+      <c r="Y44" s="315"/>
+      <c r="Z44" s="315"/>
+      <c r="AA44" s="315"/>
+      <c r="AB44" s="315"/>
+      <c r="AC44" s="315"/>
       <c r="AM44" s="40"/>
     </row>
-    <row r="45" spans="3:53" ht="11.25" customHeight="1">
+    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="99"/>
       <c r="E45" s="100"/>
       <c r="F45" s="100"/>
@@ -7777,10 +7668,10 @@
       <c r="AC45" s="96"/>
       <c r="AM45" s="40"/>
     </row>
-    <row r="46" spans="3:53" ht="11.25" customHeight="1">
+    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O46" s="100"/>
     </row>
-    <row r="47" spans="3:53">
+    <row r="47" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C47" s="54" t="s">
         <v>46</v>
       </c>
@@ -7802,7 +7693,7 @@
       <c r="AZ47" s="81"/>
       <c r="BA47" s="81"/>
     </row>
-    <row r="48" spans="3:53" s="58" customFormat="1">
+    <row r="48" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AJ48" s="49"/>
       <c r="AK48" s="49"/>
       <c r="AL48" s="49"/>
@@ -7821,37 +7712,37 @@
       <c r="AY48" s="49"/>
       <c r="AZ48" s="49"/>
     </row>
-    <row r="49" spans="3:53" s="58" customFormat="1">
-      <c r="D49" s="315" t="s">
+    <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="309" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="312" t="s">
+      <c r="E49" s="306" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="313"/>
-      <c r="G49" s="313"/>
-      <c r="H49" s="313"/>
-      <c r="I49" s="313"/>
-      <c r="J49" s="313"/>
-      <c r="K49" s="313"/>
-      <c r="L49" s="313"/>
-      <c r="M49" s="313"/>
-      <c r="N49" s="313"/>
-      <c r="O49" s="313"/>
-      <c r="P49" s="313"/>
-      <c r="Q49" s="313"/>
-      <c r="R49" s="313"/>
-      <c r="S49" s="313"/>
-      <c r="T49" s="313"/>
-      <c r="U49" s="313"/>
-      <c r="V49" s="313"/>
-      <c r="W49" s="313"/>
-      <c r="X49" s="313"/>
-      <c r="Y49" s="313"/>
-      <c r="Z49" s="313"/>
-      <c r="AA49" s="313"/>
-      <c r="AB49" s="313"/>
-      <c r="AC49" s="314"/>
+      <c r="F49" s="307"/>
+      <c r="G49" s="307"/>
+      <c r="H49" s="307"/>
+      <c r="I49" s="307"/>
+      <c r="J49" s="307"/>
+      <c r="K49" s="307"/>
+      <c r="L49" s="307"/>
+      <c r="M49" s="307"/>
+      <c r="N49" s="307"/>
+      <c r="O49" s="307"/>
+      <c r="P49" s="307"/>
+      <c r="Q49" s="307"/>
+      <c r="R49" s="307"/>
+      <c r="S49" s="307"/>
+      <c r="T49" s="307"/>
+      <c r="U49" s="307"/>
+      <c r="V49" s="307"/>
+      <c r="W49" s="307"/>
+      <c r="X49" s="307"/>
+      <c r="Y49" s="307"/>
+      <c r="Z49" s="307"/>
+      <c r="AA49" s="307"/>
+      <c r="AB49" s="307"/>
+      <c r="AC49" s="308"/>
       <c r="AD49" s="265" t="s">
         <v>60</v>
       </c>
@@ -7868,7 +7759,7 @@
       <c r="AM49" s="49"/>
       <c r="AN49" s="49"/>
     </row>
-    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1">
+    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D50" s="331"/>
       <c r="E50" s="265" t="s">
         <v>62</v>
@@ -7904,8 +7795,8 @@
       </c>
       <c r="AA50" s="266"/>
       <c r="AB50" s="267"/>
-      <c r="AC50" s="315" t="s">
-        <v>67</v>
+      <c r="AC50" s="309" t="s">
+        <v>176</v>
       </c>
       <c r="AD50" s="268"/>
       <c r="AE50" s="269"/>
@@ -7925,8 +7816,8 @@
       <c r="AS50" s="49"/>
       <c r="AT50" s="49"/>
     </row>
-    <row r="51" spans="3:53" s="58" customFormat="1">
-      <c r="D51" s="316"/>
+    <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="310"/>
       <c r="E51" s="271"/>
       <c r="F51" s="272"/>
       <c r="G51" s="272"/>
@@ -7951,7 +7842,7 @@
       <c r="Z51" s="271"/>
       <c r="AA51" s="272"/>
       <c r="AB51" s="273"/>
-      <c r="AC51" s="316"/>
+      <c r="AC51" s="310"/>
       <c r="AD51" s="271"/>
       <c r="AE51" s="272"/>
       <c r="AF51" s="272"/>
@@ -7961,7 +7852,7 @@
       <c r="AJ51" s="49"/>
       <c r="AK51" s="49"/>
       <c r="AL51" s="101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AM51" s="102"/>
       <c r="AN51" s="102"/>
@@ -7972,32 +7863,32 @@
       <c r="AS51" s="49"/>
       <c r="AT51" s="49"/>
     </row>
-    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1">
+    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="104">
         <v>1</v>
       </c>
       <c r="E52" s="277" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52" s="278"/>
       <c r="G52" s="278"/>
       <c r="H52" s="299"/>
       <c r="I52" s="298" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J52" s="298"/>
       <c r="K52" s="298"/>
       <c r="L52" s="298"/>
-      <c r="M52" s="320" t="s">
+      <c r="M52" s="314" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="320"/>
-      <c r="O52" s="320"/>
-      <c r="P52" s="320"/>
-      <c r="Q52" s="320"/>
-      <c r="R52" s="320"/>
-      <c r="S52" s="320"/>
-      <c r="T52" s="320"/>
+      <c r="N52" s="314"/>
+      <c r="O52" s="314"/>
+      <c r="P52" s="314"/>
+      <c r="Q52" s="314"/>
+      <c r="R52" s="314"/>
+      <c r="S52" s="314"/>
+      <c r="T52" s="314"/>
       <c r="U52" s="294" t="s">
         <v>39</v>
       </c>
@@ -8011,10 +7902,10 @@
       <c r="AA52" s="294"/>
       <c r="AB52" s="294"/>
       <c r="AC52" s="105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD52" s="295" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE52" s="296"/>
       <c r="AF52" s="296"/>
@@ -8024,7 +7915,7 @@
       <c r="AJ52" s="49"/>
       <c r="AK52" s="49"/>
       <c r="AL52" s="91" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AM52" s="92"/>
       <c r="AN52" s="92"/>
@@ -8035,34 +7926,34 @@
       <c r="AS52" s="49"/>
       <c r="AT52" s="49"/>
     </row>
-    <row r="53" spans="3:53" s="58" customFormat="1" ht="36" customHeight="1">
+    <row r="53" spans="3:53" s="58" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="104">
         <v>2</v>
       </c>
       <c r="E53" s="277" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F53" s="278"/>
       <c r="G53" s="278"/>
       <c r="H53" s="299"/>
       <c r="I53" s="298" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J53" s="298"/>
       <c r="K53" s="298"/>
       <c r="L53" s="298"/>
-      <c r="M53" s="317" t="s">
+      <c r="M53" s="311" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="318"/>
-      <c r="O53" s="318"/>
-      <c r="P53" s="318"/>
-      <c r="Q53" s="318"/>
-      <c r="R53" s="318"/>
-      <c r="S53" s="318"/>
-      <c r="T53" s="319"/>
+      <c r="N53" s="312"/>
+      <c r="O53" s="312"/>
+      <c r="P53" s="312"/>
+      <c r="Q53" s="312"/>
+      <c r="R53" s="312"/>
+      <c r="S53" s="312"/>
+      <c r="T53" s="313"/>
       <c r="U53" s="295" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V53" s="296"/>
       <c r="W53" s="296"/>
@@ -8074,10 +7965,10 @@
       <c r="AA53" s="294"/>
       <c r="AB53" s="294"/>
       <c r="AC53" s="105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD53" s="295" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE53" s="296"/>
       <c r="AF53" s="296"/>
@@ -8087,7 +7978,7 @@
       <c r="AJ53" s="49"/>
       <c r="AK53" s="49"/>
       <c r="AL53" s="91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM53" s="92"/>
       <c r="AN53" s="92"/>
@@ -8098,10 +7989,10 @@
       <c r="AS53" s="49"/>
       <c r="AT53" s="49"/>
     </row>
-    <row r="54" spans="3:53" ht="11.25" customHeight="1">
+    <row r="54" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AY54" s="56"/>
     </row>
-    <row r="55" spans="3:53">
+    <row r="55" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D55" s="106"/>
       <c r="E55" s="107"/>
       <c r="F55" s="108"/>
@@ -8143,7 +8034,7 @@
       <c r="AR55" s="42"/>
       <c r="AS55" s="42"/>
     </row>
-    <row r="56" spans="3:53">
+    <row r="56" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C56" s="54" t="s">
         <v>47</v>
       </c>
@@ -8188,7 +8079,7 @@
       <c r="AR56" s="42"/>
       <c r="AS56" s="42"/>
     </row>
-    <row r="57" spans="3:53" ht="11.25" customHeight="1">
+    <row r="57" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AI57" s="108"/>
       <c r="AJ57" s="108"/>
       <c r="AK57" s="42"/>
@@ -8205,12 +8096,12 @@
       <c r="AV57" s="42"/>
       <c r="AW57" s="42"/>
     </row>
-    <row r="58" spans="3:53">
+    <row r="58" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D58" s="332" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="286" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F58" s="287"/>
       <c r="G58" s="287"/>
@@ -8218,16 +8109,16 @@
       <c r="I58" s="287"/>
       <c r="J58" s="288"/>
       <c r="K58" s="286" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L58" s="287"/>
       <c r="M58" s="287"/>
       <c r="N58" s="288"/>
       <c r="O58" s="284" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58" s="110" t="s">
         <v>80</v>
-      </c>
-      <c r="P58" s="110" t="s">
-        <v>81</v>
       </c>
       <c r="Q58" s="111"/>
       <c r="R58" s="111"/>
@@ -8263,7 +8154,7 @@
       <c r="AV58" s="42"/>
       <c r="AW58" s="42"/>
     </row>
-    <row r="59" spans="3:53">
+    <row r="59" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D59" s="333"/>
       <c r="E59" s="289"/>
       <c r="F59" s="290"/>
@@ -8277,19 +8168,19 @@
       <c r="N59" s="291"/>
       <c r="O59" s="285"/>
       <c r="P59" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q59" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="Q59" s="112" t="s">
+      <c r="R59" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="R59" s="112" t="s">
+      <c r="S59" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="S59" s="112" t="s">
+      <c r="T59" s="292" t="s">
         <v>85</v>
-      </c>
-      <c r="T59" s="292" t="s">
-        <v>86</v>
       </c>
       <c r="U59" s="293"/>
       <c r="V59" s="289"/>
@@ -8319,12 +8210,12 @@
       <c r="AV59" s="42"/>
       <c r="AW59" s="42"/>
     </row>
-    <row r="60" spans="3:53">
+    <row r="60" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D60" s="113">
         <v>1</v>
       </c>
       <c r="E60" s="338" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F60" s="339"/>
       <c r="G60" s="339"/>
@@ -8332,22 +8223,22 @@
       <c r="I60" s="339"/>
       <c r="J60" s="340"/>
       <c r="K60" s="295" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L60" s="296"/>
       <c r="M60" s="296"/>
       <c r="N60" s="297"/>
       <c r="O60" s="114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P60" s="115" t="s">
         <v>39</v>
       </c>
       <c r="Q60" s="115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R60" s="115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S60" s="115" t="s">
         <v>39</v>
@@ -8385,7 +8276,7 @@
       <c r="AV60" s="42"/>
       <c r="AW60" s="42"/>
     </row>
-    <row r="61" spans="3:53">
+    <row r="61" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D61" s="116"/>
       <c r="E61" s="117"/>
       <c r="F61" s="117"/>
@@ -8433,7 +8324,7 @@
       <c r="AZ61" s="42"/>
       <c r="BA61" s="42"/>
     </row>
-    <row r="62" spans="3:53">
+    <row r="62" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D62" s="106"/>
       <c r="E62" s="107"/>
       <c r="F62" s="108"/>
@@ -8477,7 +8368,7 @@
       <c r="AZ62" s="42"/>
       <c r="BA62" s="42"/>
     </row>
-    <row r="63" spans="3:53">
+    <row r="63" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C63" s="54" t="s">
         <v>48</v>
       </c>
@@ -8491,13 +8382,13 @@
       <c r="AZ63" s="42"/>
       <c r="BA63" s="42"/>
     </row>
-    <row r="65" spans="1:58" ht="11.25" customHeight="1">
+    <row r="65" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="119"/>
       <c r="D65" s="120" t="s">
         <v>30</v>
       </c>
       <c r="E65" s="334" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F65" s="335"/>
       <c r="G65" s="335"/>
@@ -8505,7 +8396,7 @@
       <c r="I65" s="335"/>
       <c r="J65" s="336"/>
       <c r="K65" s="334" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L65" s="335"/>
       <c r="M65" s="335"/>
@@ -8514,7 +8405,7 @@
       <c r="P65" s="335"/>
       <c r="Q65" s="337"/>
       <c r="R65" s="274" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S65" s="335"/>
       <c r="T65" s="335"/>
@@ -8523,32 +8414,32 @@
       <c r="W65" s="335"/>
       <c r="X65" s="335"/>
       <c r="Y65" s="337"/>
-      <c r="Z65" s="312" t="s">
+      <c r="Z65" s="306" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA65" s="307"/>
+      <c r="AB65" s="307"/>
+      <c r="AC65" s="307"/>
+      <c r="AD65" s="308"/>
+      <c r="AE65" s="325" t="s">
         <v>93</v>
       </c>
-      <c r="AA65" s="313"/>
-      <c r="AB65" s="313"/>
-      <c r="AC65" s="313"/>
-      <c r="AD65" s="314"/>
-      <c r="AE65" s="324" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF65" s="325"/>
-      <c r="AG65" s="325"/>
-      <c r="AH65" s="326"/>
-    </row>
-    <row r="66" spans="1:58" ht="27" customHeight="1">
+      <c r="AF65" s="326"/>
+      <c r="AG65" s="326"/>
+      <c r="AH65" s="327"/>
+    </row>
+    <row r="66" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="121">
         <v>1</v>
       </c>
-      <c r="E66" s="327" t="s">
-        <v>95</v>
-      </c>
-      <c r="F66" s="328"/>
-      <c r="G66" s="328"/>
-      <c r="H66" s="328"/>
-      <c r="I66" s="328"/>
-      <c r="J66" s="329"/>
+      <c r="E66" s="328" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="329"/>
+      <c r="G66" s="329"/>
+      <c r="H66" s="329"/>
+      <c r="I66" s="329"/>
+      <c r="J66" s="330"/>
       <c r="K66" s="295" t="s">
         <v>39</v>
       </c>
@@ -8559,7 +8450,7 @@
       <c r="P66" s="296"/>
       <c r="Q66" s="297"/>
       <c r="R66" s="295" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S66" s="296"/>
       <c r="T66" s="296"/>
@@ -8575,27 +8466,27 @@
       <c r="AB66" s="296"/>
       <c r="AC66" s="296"/>
       <c r="AD66" s="297"/>
-      <c r="AE66" s="321" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF66" s="322"/>
-      <c r="AG66" s="322"/>
-      <c r="AH66" s="323"/>
-    </row>
-    <row r="67" spans="1:58" ht="27" customHeight="1">
+      <c r="AE66" s="322" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF66" s="323"/>
+      <c r="AG66" s="323"/>
+      <c r="AH66" s="324"/>
+    </row>
+    <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="121">
         <v>2</v>
       </c>
-      <c r="E67" s="327" t="s">
+      <c r="E67" s="328" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="328"/>
-      <c r="G67" s="328"/>
-      <c r="H67" s="328"/>
-      <c r="I67" s="328"/>
-      <c r="J67" s="329"/>
+      <c r="F67" s="329"/>
+      <c r="G67" s="329"/>
+      <c r="H67" s="329"/>
+      <c r="I67" s="329"/>
+      <c r="J67" s="330"/>
       <c r="K67" s="295" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L67" s="296"/>
       <c r="M67" s="296"/>
@@ -8604,7 +8495,7 @@
       <c r="P67" s="296"/>
       <c r="Q67" s="297"/>
       <c r="R67" s="295" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S67" s="296"/>
       <c r="T67" s="296"/>
@@ -8614,20 +8505,20 @@
       <c r="X67" s="296"/>
       <c r="Y67" s="297"/>
       <c r="Z67" s="295" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA67" s="296"/>
       <c r="AB67" s="296"/>
       <c r="AC67" s="296"/>
       <c r="AD67" s="297"/>
-      <c r="AE67" s="321" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF67" s="322"/>
-      <c r="AG67" s="322"/>
-      <c r="AH67" s="323"/>
-    </row>
-    <row r="68" spans="1:58" s="56" customFormat="1">
+      <c r="AE67" s="322" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF67" s="323"/>
+      <c r="AG67" s="323"/>
+      <c r="AH67" s="324"/>
+    </row>
+    <row r="68" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D68" s="122"/>
       <c r="E68" s="123"/>
       <c r="F68" s="123"/>
@@ -8663,7 +8554,7 @@
       <c r="AO68" s="38"/>
       <c r="AP68" s="38"/>
     </row>
-    <row r="69" spans="1:58">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
@@ -8715,7 +8606,7 @@
       <c r="BA69" s="42"/>
       <c r="BB69" s="42"/>
     </row>
-    <row r="70" spans="1:58">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C70" s="42" t="s">
         <v>49</v>
       </c>
@@ -8741,10 +8632,10 @@
       <c r="BC70" s="42"/>
       <c r="BD70" s="42"/>
     </row>
-    <row r="71" spans="1:58" ht="11.25" customHeight="1">
+    <row r="71" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="42"/>
       <c r="D71" s="124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E71" s="124"/>
       <c r="AP71" s="42"/>
@@ -8763,7 +8654,7 @@
       <c r="BC71" s="42"/>
       <c r="BD71" s="42"/>
     </row>
-    <row r="72" spans="1:58" ht="11.25" customHeight="1">
+    <row r="72" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="42"/>
       <c r="D72" s="124"/>
       <c r="E72" s="124"/>
@@ -8783,30 +8674,30 @@
       <c r="BC72" s="42"/>
       <c r="BD72" s="42"/>
     </row>
-    <row r="73" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1">
+    <row r="73" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="38"/>
       <c r="D73" s="124"/>
       <c r="E73" s="124" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP73" s="38"/>
     </row>
-    <row r="74" spans="1:58">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C74" s="42"/>
       <c r="D74" s="124"/>
       <c r="E74" s="124"/>
       <c r="F74" s="124"/>
     </row>
-    <row r="75" spans="1:58" ht="11.25" customHeight="1">
+    <row r="75" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="42"/>
       <c r="D75" s="124"/>
       <c r="E75" s="124"/>
       <c r="F75" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP75" s="42"/>
     </row>
-    <row r="76" spans="1:58" s="56" customFormat="1">
+    <row r="76" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="38"/>
       <c r="B76" s="44"/>
       <c r="C76" s="38"/>
@@ -8843,7 +8734,7 @@
       <c r="AI76" s="126"/>
       <c r="AJ76" s="107"/>
     </row>
-    <row r="77" spans="1:58" s="56" customFormat="1">
+    <row r="77" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AI77" s="127"/>
       <c r="AJ77" s="127"/>
       <c r="AK77" s="127"/>
@@ -8868,9 +8759,9 @@
       <c r="BD77" s="127"/>
       <c r="BE77" s="127"/>
     </row>
-    <row r="78" spans="1:58">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E78" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G78" s="44"/>
       <c r="AJ78" s="128"/>
@@ -8897,7 +8788,7 @@
       <c r="BE78" s="128"/>
       <c r="BF78" s="128"/>
     </row>
-    <row r="79" spans="1:58">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.2">
       <c r="H79" s="44"/>
       <c r="AJ79" s="128"/>
       <c r="AK79" s="128"/>
@@ -8923,10 +8814,10 @@
       <c r="BE79" s="128"/>
       <c r="BF79" s="128"/>
     </row>
-    <row r="80" spans="1:58">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E80" s="66"/>
       <c r="F80" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ80" s="128"/>
       <c r="AK80" s="128"/>
@@ -8952,7 +8843,7 @@
       <c r="BE80" s="128"/>
       <c r="BF80" s="128"/>
     </row>
-    <row r="81" spans="1:58">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E81" s="66"/>
       <c r="F81" s="129"/>
       <c r="G81" s="66"/>
@@ -8980,7 +8871,7 @@
       <c r="BE81" s="128"/>
       <c r="BF81" s="128"/>
     </row>
-    <row r="82" spans="1:58">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E82" s="66"/>
       <c r="AJ82" s="128"/>
       <c r="AK82" s="128"/>
@@ -9006,10 +8897,10 @@
       <c r="BE82" s="128"/>
       <c r="BF82" s="128"/>
     </row>
-    <row r="83" spans="1:58" ht="11.25" customHeight="1">
+    <row r="83" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="42"/>
       <c r="D83" s="124" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E83" s="124"/>
       <c r="AP83" s="42"/>
@@ -9028,7 +8919,7 @@
       <c r="BC83" s="42"/>
       <c r="BD83" s="42"/>
     </row>
-    <row r="84" spans="1:58" ht="11.25" customHeight="1">
+    <row r="84" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="42"/>
       <c r="D84" s="124"/>
       <c r="E84" s="124"/>
@@ -9048,28 +8939,28 @@
       <c r="BC84" s="42"/>
       <c r="BD84" s="42"/>
     </row>
-    <row r="85" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1">
+    <row r="85" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="38"/>
       <c r="D85" s="124"/>
       <c r="E85" s="124" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP85" s="38"/>
     </row>
-    <row r="86" spans="1:58">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C86" s="42"/>
       <c r="D86" s="124"/>
       <c r="E86" s="124"/>
       <c r="F86" s="124"/>
     </row>
-    <row r="87" spans="1:58" ht="41.25" customHeight="1">
+    <row r="87" spans="1:58" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D87" s="42"/>
       <c r="E87" s="124"/>
       <c r="F87" s="130" t="s">
         <v>30</v>
       </c>
       <c r="G87" s="274" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H87" s="335"/>
       <c r="I87" s="335"/>
@@ -9077,7 +8968,7 @@
       <c r="K87" s="335"/>
       <c r="L87" s="337"/>
       <c r="M87" s="274" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N87" s="335"/>
       <c r="O87" s="335"/>
@@ -9089,18 +8980,18 @@
       <c r="U87" s="335"/>
       <c r="V87" s="337"/>
       <c r="W87" s="364" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X87" s="365"/>
       <c r="Y87" s="366"/>
       <c r="Z87" s="364" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA87" s="365"/>
       <c r="AB87" s="365"/>
       <c r="AC87" s="366"/>
       <c r="AD87" s="352" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE87" s="353"/>
       <c r="AF87" s="353"/>
@@ -9128,49 +9019,49 @@
       <c r="BD87" s="128"/>
       <c r="BE87" s="128"/>
     </row>
-    <row r="88" spans="1:58" ht="47.25" customHeight="1">
+    <row r="88" spans="1:58" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D88" s="42"/>
       <c r="E88" s="124"/>
       <c r="F88" s="131">
         <v>1</v>
       </c>
-      <c r="G88" s="317" t="s">
+      <c r="G88" s="311" t="s">
+        <v>110</v>
+      </c>
+      <c r="H88" s="312"/>
+      <c r="I88" s="312"/>
+      <c r="J88" s="312"/>
+      <c r="K88" s="312"/>
+      <c r="L88" s="313"/>
+      <c r="M88" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="H88" s="318"/>
-      <c r="I88" s="318"/>
-      <c r="J88" s="318"/>
-      <c r="K88" s="318"/>
-      <c r="L88" s="319"/>
-      <c r="M88" s="317" t="s">
+      <c r="N88" s="312"/>
+      <c r="O88" s="312"/>
+      <c r="P88" s="312"/>
+      <c r="Q88" s="312"/>
+      <c r="R88" s="312"/>
+      <c r="S88" s="312"/>
+      <c r="T88" s="312"/>
+      <c r="U88" s="312"/>
+      <c r="V88" s="313"/>
+      <c r="W88" s="355" t="s">
         <v>112</v>
-      </c>
-      <c r="N88" s="318"/>
-      <c r="O88" s="318"/>
-      <c r="P88" s="318"/>
-      <c r="Q88" s="318"/>
-      <c r="R88" s="318"/>
-      <c r="S88" s="318"/>
-      <c r="T88" s="318"/>
-      <c r="U88" s="318"/>
-      <c r="V88" s="319"/>
-      <c r="W88" s="355" t="s">
-        <v>113</v>
       </c>
       <c r="X88" s="356"/>
       <c r="Y88" s="357"/>
       <c r="Z88" s="361" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA88" s="362"/>
       <c r="AB88" s="362"/>
       <c r="AC88" s="363"/>
-      <c r="AD88" s="317" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE88" s="318"/>
-      <c r="AF88" s="318"/>
-      <c r="AG88" s="319"/>
+      <c r="AD88" s="311" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE88" s="312"/>
+      <c r="AF88" s="312"/>
+      <c r="AG88" s="313"/>
       <c r="AI88" s="127"/>
       <c r="AJ88" s="127"/>
       <c r="AK88" s="127"/>
@@ -9195,7 +9086,7 @@
       <c r="BD88" s="128"/>
       <c r="BE88" s="128"/>
     </row>
-    <row r="89" spans="1:58">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D89" s="42"/>
       <c r="E89" s="124"/>
       <c r="F89" s="56"/>
@@ -9251,19 +9142,19 @@
       <c r="BD89" s="128"/>
       <c r="BE89" s="128"/>
     </row>
-    <row r="90" spans="1:58" s="56" customFormat="1">
+    <row r="90" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D90" s="38"/>
       <c r="E90" s="124"/>
       <c r="F90" s="56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:58" s="56" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D91" s="38"/>
       <c r="E91" s="124"/>
       <c r="F91" s="124"/>
     </row>
-    <row r="92" spans="1:58" s="56" customFormat="1">
+    <row r="92" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="38"/>
       <c r="B92" s="44"/>
       <c r="C92" s="38"/>
@@ -9300,25 +9191,25 @@
       <c r="AI92" s="126"/>
       <c r="AJ92" s="107"/>
     </row>
-    <row r="93" spans="1:58" ht="11.25" customHeight="1">
+    <row r="93" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="42"/>
       <c r="D93" s="124"/>
       <c r="E93" s="124"/>
       <c r="AP93" s="42"/>
     </row>
-    <row r="94" spans="1:58">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E94" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="F95" s="54" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:58">
-      <c r="F95" s="54" t="s">
+    <row r="97" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G97" s="367" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="5:58" s="56" customFormat="1">
-      <c r="G97" s="367" t="s">
-        <v>118</v>
       </c>
       <c r="H97" s="368"/>
       <c r="I97" s="368"/>
@@ -9330,7 +9221,7 @@
       <c r="O97" s="368"/>
       <c r="P97" s="369"/>
       <c r="Q97" s="370" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R97" s="371"/>
       <c r="S97" s="371"/>
@@ -9342,9 +9233,9 @@
       <c r="Y97" s="371"/>
       <c r="Z97" s="372"/>
     </row>
-    <row r="98" spans="5:58" ht="11.25" customHeight="1">
+    <row r="98" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G98" s="343" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H98" s="344"/>
       <c r="I98" s="344"/>
@@ -9356,7 +9247,7 @@
       <c r="O98" s="344"/>
       <c r="P98" s="345"/>
       <c r="Q98" s="338" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R98" s="339"/>
       <c r="S98" s="339"/>
@@ -9370,7 +9261,7 @@
       <c r="AG98" s="132"/>
       <c r="AH98" s="132"/>
     </row>
-    <row r="99" spans="5:58" ht="11.25" customHeight="1">
+    <row r="99" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G99" s="346"/>
       <c r="H99" s="347"/>
       <c r="I99" s="347"/>
@@ -9382,7 +9273,7 @@
       <c r="O99" s="347"/>
       <c r="P99" s="348"/>
       <c r="Q99" s="133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R99" s="134"/>
       <c r="S99" s="134"/>
@@ -9396,7 +9287,7 @@
       <c r="AG99" s="132"/>
       <c r="AH99" s="132"/>
     </row>
-    <row r="100" spans="5:58" ht="11.25" customHeight="1">
+    <row r="100" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G100" s="346"/>
       <c r="H100" s="347"/>
       <c r="I100" s="347"/>
@@ -9408,7 +9299,7 @@
       <c r="O100" s="347"/>
       <c r="P100" s="348"/>
       <c r="Q100" s="133" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R100" s="134"/>
       <c r="S100" s="134"/>
@@ -9422,7 +9313,7 @@
       <c r="AG100" s="132"/>
       <c r="AH100" s="132"/>
     </row>
-    <row r="101" spans="5:58" ht="11.25" customHeight="1">
+    <row r="101" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G101" s="346"/>
       <c r="H101" s="347"/>
       <c r="I101" s="347"/>
@@ -9434,7 +9325,7 @@
       <c r="O101" s="347"/>
       <c r="P101" s="348"/>
       <c r="Q101" s="133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R101" s="134"/>
       <c r="S101" s="134"/>
@@ -9448,7 +9339,7 @@
       <c r="AG101" s="132"/>
       <c r="AH101" s="132"/>
     </row>
-    <row r="102" spans="5:58" ht="11.25" customHeight="1">
+    <row r="102" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G102" s="346"/>
       <c r="H102" s="347"/>
       <c r="I102" s="347"/>
@@ -9460,7 +9351,7 @@
       <c r="O102" s="347"/>
       <c r="P102" s="348"/>
       <c r="Q102" s="338" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R102" s="339"/>
       <c r="S102" s="339"/>
@@ -9474,7 +9365,7 @@
       <c r="AG102" s="132"/>
       <c r="AH102" s="132"/>
     </row>
-    <row r="103" spans="5:58">
+    <row r="103" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G103" s="346"/>
       <c r="H103" s="347"/>
       <c r="I103" s="347"/>
@@ -9486,7 +9377,7 @@
       <c r="O103" s="347"/>
       <c r="P103" s="348"/>
       <c r="Q103" s="338" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R103" s="339"/>
       <c r="S103" s="339"/>
@@ -9514,9 +9405,9 @@
       <c r="AX103" s="128"/>
       <c r="AY103" s="128"/>
     </row>
-    <row r="104" spans="5:58">
+    <row r="104" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G104" s="343" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H104" s="344"/>
       <c r="I104" s="344"/>
@@ -9528,7 +9419,7 @@
       <c r="O104" s="344"/>
       <c r="P104" s="345"/>
       <c r="Q104" s="338" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R104" s="339"/>
       <c r="S104" s="339"/>
@@ -9556,7 +9447,7 @@
       <c r="AX104" s="128"/>
       <c r="AY104" s="128"/>
     </row>
-    <row r="105" spans="5:58">
+    <row r="105" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G105" s="358"/>
       <c r="H105" s="359"/>
       <c r="I105" s="359"/>
@@ -9568,7 +9459,7 @@
       <c r="O105" s="359"/>
       <c r="P105" s="360"/>
       <c r="Q105" s="338" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R105" s="339"/>
       <c r="S105" s="339"/>
@@ -9596,9 +9487,9 @@
       <c r="AX105" s="128"/>
       <c r="AY105" s="128"/>
     </row>
-    <row r="106" spans="5:58">
+    <row r="106" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G106" s="349" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H106" s="350"/>
       <c r="I106" s="350"/>
@@ -9643,7 +9534,7 @@
       <c r="BE106" s="128"/>
       <c r="BF106" s="128"/>
     </row>
-    <row r="107" spans="5:58">
+    <row r="107" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G107" s="136"/>
       <c r="H107" s="137"/>
       <c r="I107" s="137"/>
@@ -9688,10 +9579,10 @@
       <c r="BE107" s="128"/>
       <c r="BF107" s="128"/>
     </row>
-    <row r="108" spans="5:58">
+    <row r="108" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G108" s="139"/>
       <c r="H108" s="140" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I108" s="140"/>
       <c r="J108" s="140"/>
@@ -9699,10 +9590,10 @@
       <c r="L108" s="141"/>
       <c r="N108" s="140"/>
       <c r="O108" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q108" s="140" t="s">
         <v>129</v>
-      </c>
-      <c r="Q108" s="140" t="s">
-        <v>130</v>
       </c>
       <c r="R108" s="140"/>
       <c r="S108" s="140"/>
@@ -9737,7 +9628,7 @@
       <c r="BE108" s="128"/>
       <c r="BF108" s="128"/>
     </row>
-    <row r="109" spans="5:58">
+    <row r="109" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G109" s="144"/>
       <c r="H109" s="145"/>
       <c r="I109" s="145"/>
@@ -9782,7 +9673,7 @@
       <c r="BE109" s="128"/>
       <c r="BF109" s="128"/>
     </row>
-    <row r="110" spans="5:58">
+    <row r="110" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G110" s="140"/>
       <c r="H110" s="140"/>
       <c r="I110" s="140"/>
@@ -9827,7 +9718,7 @@
       <c r="BE110" s="128"/>
       <c r="BF110" s="128"/>
     </row>
-    <row r="111" spans="5:58" s="56" customFormat="1">
+    <row r="111" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AI111" s="127"/>
       <c r="AJ111" s="127"/>
       <c r="AK111" s="127"/>
@@ -9852,9 +9743,9 @@
       <c r="BD111" s="127"/>
       <c r="BE111" s="127"/>
     </row>
-    <row r="112" spans="5:58">
+    <row r="112" spans="5:58" x14ac:dyDescent="0.2">
       <c r="E112" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G112" s="44"/>
       <c r="AJ112" s="128"/>
@@ -9881,14 +9772,14 @@
       <c r="BE112" s="128"/>
       <c r="BF112" s="128"/>
     </row>
-    <row r="113" spans="4:58" s="56" customFormat="1">
+    <row r="113" spans="4:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D113" s="38"/>
       <c r="E113" s="124"/>
     </row>
-    <row r="114" spans="4:58">
+    <row r="114" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E114" s="66"/>
       <c r="F114" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ114" s="128"/>
       <c r="AK114" s="128"/>
@@ -9914,11 +9805,11 @@
       <c r="BE114" s="128"/>
       <c r="BF114" s="128"/>
     </row>
-    <row r="115" spans="4:58">
+    <row r="115" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E115" s="66"/>
       <c r="F115" s="129"/>
       <c r="G115" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ115" s="128"/>
       <c r="AK115" s="128"/>
@@ -9944,11 +9835,11 @@
       <c r="BE115" s="128"/>
       <c r="BF115" s="128"/>
     </row>
-    <row r="116" spans="4:58">
+    <row r="116" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E116" s="66"/>
       <c r="F116" s="129"/>
       <c r="H116" s="73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I116" s="150"/>
       <c r="J116" s="150"/>
@@ -9981,7 +9872,7 @@
       <c r="BE116" s="128"/>
       <c r="BF116" s="128"/>
     </row>
-    <row r="117" spans="4:58">
+    <row r="117" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E117" s="66"/>
       <c r="F117" s="129"/>
       <c r="G117" s="66"/>
@@ -10009,10 +9900,10 @@
       <c r="BE117" s="128"/>
       <c r="BF117" s="128"/>
     </row>
-    <row r="118" spans="4:58">
+    <row r="118" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E118" s="66"/>
       <c r="F118" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ118" s="128"/>
       <c r="AK118" s="128"/>
@@ -10038,11 +9929,11 @@
       <c r="BE118" s="128"/>
       <c r="BF118" s="128"/>
     </row>
-    <row r="119" spans="4:58">
+    <row r="119" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E119" s="66"/>
       <c r="F119" s="129"/>
       <c r="G119" s="373" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H119" s="373"/>
       <c r="I119" s="373"/>
@@ -10094,7 +9985,7 @@
       <c r="BE119" s="128"/>
       <c r="BF119" s="128"/>
     </row>
-    <row r="120" spans="4:58">
+    <row r="120" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E120" s="66"/>
       <c r="F120" s="129"/>
       <c r="G120" s="373"/>
@@ -10148,12 +10039,12 @@
       <c r="BE120" s="128"/>
       <c r="BF120" s="128"/>
     </row>
-    <row r="121" spans="4:58">
+    <row r="121" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E121" s="66"/>
       <c r="F121" s="129"/>
       <c r="G121" s="66"/>
       <c r="H121" s="73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ121" s="128"/>
       <c r="AK121" s="128"/>
@@ -10179,10 +10070,10 @@
       <c r="BE121" s="128"/>
       <c r="BF121" s="128"/>
     </row>
-    <row r="122" spans="4:58">
+    <row r="122" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E122" s="66"/>
       <c r="F122" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ122" s="128"/>
       <c r="AK122" s="128"/>
@@ -10208,11 +10099,11 @@
       <c r="BE122" s="128"/>
       <c r="BF122" s="128"/>
     </row>
-    <row r="123" spans="4:58">
+    <row r="123" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E123" s="66"/>
       <c r="F123" s="129"/>
       <c r="G123" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ123" s="128"/>
       <c r="AK123" s="128"/>
@@ -10238,11 +10129,11 @@
       <c r="BE123" s="128"/>
       <c r="BF123" s="128"/>
     </row>
-    <row r="124" spans="4:58">
+    <row r="124" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E124" s="66"/>
       <c r="F124" s="129"/>
       <c r="H124" s="73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I124" s="150"/>
       <c r="J124" s="150"/>
@@ -10274,7 +10165,7 @@
       <c r="BE124" s="128"/>
       <c r="BF124" s="128"/>
     </row>
-    <row r="125" spans="4:58">
+    <row r="125" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E125" s="66"/>
       <c r="F125" s="129"/>
       <c r="G125" s="66"/>
@@ -10302,10 +10193,10 @@
       <c r="BE125" s="128"/>
       <c r="BF125" s="128"/>
     </row>
-    <row r="126" spans="4:58">
+    <row r="126" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E126" s="66"/>
       <c r="F126" s="66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ126" s="128"/>
       <c r="AK126" s="128"/>
@@ -10331,11 +10222,11 @@
       <c r="BE126" s="128"/>
       <c r="BF126" s="128"/>
     </row>
-    <row r="127" spans="4:58">
+    <row r="127" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E127" s="66"/>
       <c r="F127" s="129"/>
       <c r="G127" s="373" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H127" s="373"/>
       <c r="I127" s="373"/>
@@ -10387,7 +10278,7 @@
       <c r="BE127" s="128"/>
       <c r="BF127" s="128"/>
     </row>
-    <row r="128" spans="4:58">
+    <row r="128" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E128" s="66"/>
       <c r="F128" s="129"/>
       <c r="G128" s="373"/>
@@ -10441,11 +10332,11 @@
       <c r="BE128" s="128"/>
       <c r="BF128" s="128"/>
     </row>
-    <row r="129" spans="5:59">
+    <row r="129" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E129" s="66"/>
       <c r="F129" s="129"/>
       <c r="H129" s="73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I129" s="150"/>
       <c r="J129" s="150"/>
@@ -10477,7 +10368,7 @@
       <c r="BE129" s="128"/>
       <c r="BF129" s="128"/>
     </row>
-    <row r="130" spans="5:59">
+    <row r="130" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E130" s="66"/>
       <c r="F130" s="129"/>
       <c r="G130" s="66"/>
@@ -10505,12 +10396,12 @@
       <c r="BE130" s="128"/>
       <c r="BF130" s="128"/>
     </row>
-    <row r="131" spans="5:59" ht="12" customHeight="1">
-      <c r="H131" s="315" t="s">
+    <row r="131" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H131" s="309" t="s">
         <v>30</v>
       </c>
       <c r="I131" s="265" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J131" s="266"/>
       <c r="K131" s="266"/>
@@ -10518,7 +10409,7 @@
       <c r="M131" s="266"/>
       <c r="N131" s="267"/>
       <c r="O131" s="378" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P131" s="379"/>
       <c r="Q131" s="379"/>
@@ -10544,8 +10435,8 @@
       <c r="AG131" s="152"/>
       <c r="AH131" s="153"/>
     </row>
-    <row r="132" spans="5:59" ht="12" customHeight="1">
-      <c r="H132" s="316"/>
+    <row r="132" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H132" s="310"/>
       <c r="I132" s="271"/>
       <c r="J132" s="272"/>
       <c r="K132" s="272"/>
@@ -10560,7 +10451,7 @@
       <c r="R132" s="379"/>
       <c r="S132" s="380"/>
       <c r="T132" s="367" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U132" s="368"/>
       <c r="V132" s="368"/>
@@ -10577,12 +10468,12 @@
       <c r="AG132" s="155"/>
       <c r="AH132" s="156"/>
     </row>
-    <row r="133" spans="5:59" ht="12" customHeight="1">
+    <row r="133" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H133" s="104">
         <v>1</v>
       </c>
       <c r="I133" s="374" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J133" s="375"/>
       <c r="K133" s="375"/>
@@ -10590,7 +10481,7 @@
       <c r="M133" s="375"/>
       <c r="N133" s="376"/>
       <c r="O133" s="157" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P133" s="158"/>
       <c r="Q133" s="158"/>
@@ -10605,7 +10496,7 @@
       <c r="X133" s="375"/>
       <c r="Y133" s="376"/>
       <c r="Z133" s="377" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA133" s="296"/>
       <c r="AB133" s="296"/>
@@ -10616,9 +10507,9 @@
       <c r="AG133" s="161"/>
       <c r="AH133" s="162"/>
     </row>
-    <row r="134" spans="5:59">
+    <row r="134" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H134" s="163" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I134" s="164"/>
       <c r="J134" s="164"/>
@@ -10670,7 +10561,7 @@
       <c r="BF134" s="128"/>
       <c r="BG134" s="128"/>
     </row>
-    <row r="135" spans="5:59">
+    <row r="135" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H135" s="136"/>
       <c r="I135" s="137"/>
       <c r="J135" s="137"/>
@@ -10722,10 +10613,10 @@
       <c r="BF135" s="128"/>
       <c r="BG135" s="128"/>
     </row>
-    <row r="136" spans="5:59">
+    <row r="136" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H136" s="139"/>
       <c r="I136" s="140" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J136" s="140"/>
       <c r="K136" s="140"/>
@@ -10733,10 +10624,10 @@
       <c r="M136" s="141"/>
       <c r="O136" s="140"/>
       <c r="P136" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="R136" s="140" t="s">
         <v>129</v>
-      </c>
-      <c r="R136" s="140" t="s">
-        <v>130</v>
       </c>
       <c r="S136" s="140"/>
       <c r="T136" s="140"/>
@@ -10778,7 +10669,7 @@
       <c r="BF136" s="128"/>
       <c r="BG136" s="128"/>
     </row>
-    <row r="137" spans="5:59">
+    <row r="137" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H137" s="144"/>
       <c r="I137" s="145"/>
       <c r="J137" s="145"/>
@@ -10830,7 +10721,7 @@
       <c r="BF137" s="128"/>
       <c r="BG137" s="128"/>
     </row>
-    <row r="138" spans="5:59">
+    <row r="138" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E138" s="66"/>
       <c r="F138" s="129"/>
       <c r="G138" s="66"/>
@@ -10858,11 +10749,11 @@
       <c r="BE138" s="128"/>
       <c r="BF138" s="128"/>
     </row>
-    <row r="139" spans="5:59">
+    <row r="139" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E139" s="66"/>
       <c r="F139" s="129"/>
       <c r="G139" s="373" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H139" s="373"/>
       <c r="I139" s="373"/>
@@ -10914,7 +10805,7 @@
       <c r="BE139" s="128"/>
       <c r="BF139" s="128"/>
     </row>
-    <row r="140" spans="5:59">
+    <row r="140" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E140" s="66"/>
       <c r="F140" s="129"/>
       <c r="G140" s="373"/>
@@ -10968,12 +10859,12 @@
       <c r="BE140" s="128"/>
       <c r="BF140" s="128"/>
     </row>
-    <row r="141" spans="5:59" ht="12" customHeight="1">
-      <c r="H141" s="315" t="s">
+    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H141" s="309" t="s">
         <v>30</v>
       </c>
       <c r="I141" s="265" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J141" s="266"/>
       <c r="K141" s="266"/>
@@ -10981,7 +10872,7 @@
       <c r="M141" s="266"/>
       <c r="N141" s="267"/>
       <c r="O141" s="378" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P141" s="379"/>
       <c r="Q141" s="379"/>
@@ -11007,8 +10898,8 @@
       <c r="AG141" s="152"/>
       <c r="AH141" s="153"/>
     </row>
-    <row r="142" spans="5:59" ht="12" customHeight="1">
-      <c r="H142" s="316"/>
+    <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H142" s="310"/>
       <c r="I142" s="271"/>
       <c r="J142" s="272"/>
       <c r="K142" s="272"/>
@@ -11023,7 +10914,7 @@
       <c r="R142" s="379"/>
       <c r="S142" s="380"/>
       <c r="T142" s="367" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U142" s="368"/>
       <c r="V142" s="368"/>
@@ -11040,12 +10931,12 @@
       <c r="AG142" s="155"/>
       <c r="AH142" s="156"/>
     </row>
-    <row r="143" spans="5:59" ht="12" customHeight="1">
+    <row r="143" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H143" s="104">
         <v>1</v>
       </c>
       <c r="I143" s="374" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J143" s="375"/>
       <c r="K143" s="375"/>
@@ -11068,7 +10959,7 @@
       <c r="X143" s="375"/>
       <c r="Y143" s="376"/>
       <c r="Z143" s="377" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA143" s="296"/>
       <c r="AB143" s="296"/>
@@ -11079,12 +10970,12 @@
       <c r="AG143" s="161"/>
       <c r="AH143" s="162"/>
     </row>
-    <row r="144" spans="5:59" ht="12" customHeight="1">
+    <row r="144" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H144" s="104">
         <v>2</v>
       </c>
       <c r="I144" s="374" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J144" s="375"/>
       <c r="K144" s="375"/>
@@ -11118,9 +11009,9 @@
       <c r="AG144" s="161"/>
       <c r="AH144" s="162"/>
     </row>
-    <row r="145" spans="5:59">
+    <row r="145" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H145" s="163" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I145" s="164"/>
       <c r="J145" s="164"/>
@@ -11172,7 +11063,7 @@
       <c r="BF145" s="128"/>
       <c r="BG145" s="128"/>
     </row>
-    <row r="146" spans="5:59">
+    <row r="146" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H146" s="136"/>
       <c r="I146" s="137"/>
       <c r="J146" s="137"/>
@@ -11224,10 +11115,10 @@
       <c r="BF146" s="128"/>
       <c r="BG146" s="128"/>
     </row>
-    <row r="147" spans="5:59">
+    <row r="147" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H147" s="139"/>
       <c r="I147" s="140" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J147" s="140"/>
       <c r="K147" s="140"/>
@@ -11235,10 +11126,10 @@
       <c r="M147" s="141"/>
       <c r="O147" s="140"/>
       <c r="P147" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="R147" s="140" t="s">
         <v>129</v>
-      </c>
-      <c r="R147" s="140" t="s">
-        <v>130</v>
       </c>
       <c r="S147" s="140"/>
       <c r="T147" s="140"/>
@@ -11280,7 +11171,7 @@
       <c r="BF147" s="128"/>
       <c r="BG147" s="128"/>
     </row>
-    <row r="148" spans="5:59">
+    <row r="148" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H148" s="144"/>
       <c r="I148" s="145"/>
       <c r="J148" s="145"/>
@@ -11332,7 +11223,7 @@
       <c r="BF148" s="128"/>
       <c r="BG148" s="128"/>
     </row>
-    <row r="149" spans="5:59">
+    <row r="149" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E149" s="66"/>
       <c r="F149" s="129"/>
       <c r="G149" s="66"/>
@@ -11360,11 +11251,11 @@
       <c r="BE149" s="128"/>
       <c r="BF149" s="128"/>
     </row>
-    <row r="150" spans="5:59">
+    <row r="150" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E150" s="66"/>
       <c r="F150" s="129"/>
       <c r="G150" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AJ150" s="128"/>
       <c r="AK150" s="128"/>
@@ -11390,7 +11281,7 @@
       <c r="BE150" s="128"/>
       <c r="BF150" s="128"/>
     </row>
-    <row r="151" spans="5:59">
+    <row r="151" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E151" s="66"/>
       <c r="F151" s="129"/>
       <c r="G151" s="66"/>
@@ -11418,10 +11309,10 @@
       <c r="BE151" s="128"/>
       <c r="BF151" s="128"/>
     </row>
-    <row r="152" spans="5:59">
+    <row r="152" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E152" s="66"/>
       <c r="F152" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ152" s="128"/>
       <c r="AK152" s="128"/>
@@ -11447,7 +11338,7 @@
       <c r="BE152" s="128"/>
       <c r="BF152" s="128"/>
     </row>
-    <row r="153" spans="5:59">
+    <row r="153" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E153" s="66"/>
       <c r="F153" s="129"/>
       <c r="G153" s="66"/>
@@ -11475,7 +11366,7 @@
       <c r="BE153" s="128"/>
       <c r="BF153" s="128"/>
     </row>
-    <row r="154" spans="5:59">
+    <row r="154" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E154" s="66"/>
       <c r="F154" s="66"/>
       <c r="AJ154" s="128"/>
@@ -11502,7 +11393,7 @@
       <c r="BE154" s="128"/>
       <c r="BF154" s="128"/>
     </row>
-    <row r="155" spans="5:59">
+    <row r="155" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E155" s="66"/>
       <c r="F155" s="129"/>
       <c r="G155" s="66"/>
@@ -11530,7 +11421,7 @@
       <c r="BE155" s="128"/>
       <c r="BF155" s="128"/>
     </row>
-    <row r="156" spans="5:59">
+    <row r="156" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E156" s="66"/>
       <c r="F156" s="129"/>
       <c r="G156" s="66"/>
@@ -11558,7 +11449,7 @@
       <c r="BE156" s="128"/>
       <c r="BF156" s="128"/>
     </row>
-    <row r="157" spans="5:59">
+    <row r="157" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E157" s="66"/>
       <c r="AJ157" s="128"/>
       <c r="AK157" s="128"/>
@@ -11757,121 +11648,121 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="54" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="54" customWidth="1"/>
     <col min="5" max="16384" width="9.33203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="166" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="167" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="168" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="167" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="168" t="s">
-        <v>151</v>
-      </c>
       <c r="D1" s="168" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="114" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="169" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="170" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="114" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="169" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="C3" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="114" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="114" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="114" t="s">
+      <c r="C4" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="D4" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="114" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="114" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="114" t="s">
+      <c r="B5" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="C5" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="114" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="114" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="114" t="s">
+      <c r="C6" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="114" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="114" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="114" t="s">
+      <c r="C7" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="114" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="114" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="114" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="114" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="114" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="114" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="114" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="114" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="114" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="114" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="114" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
